--- a/info.xlsx
+++ b/info.xlsx
@@ -988,7 +988,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
